--- a/기획서/문서/RoomClear.xlsx
+++ b/기획서/문서/RoomClear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28726069-8B7E-46C8-A481-ECD5F0143397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F2CB0-B7A2-41F8-9F03-4DA6E663A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,18 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SW4_2(와)과 상호작용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SW10_1(와)과 상호작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gate12_2(을)를 통해 Room13(으)로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SW11_1(와)과 상호작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +100,14 @@
   </si>
   <si>
     <t>보스 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW8_1(와)과 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate12_1(을)를 통해 Room13(으)로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +324,26 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -341,6 +360,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -372,22 +392,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -395,26 +403,15 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -425,6 +422,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -432,12 +430,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -454,13 +454,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1BEB185-D990-4861-8611-94160B27CBBF}" name="표1" displayName="표1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1BEB185-D990-4861-8611-94160B27CBBF}" name="표1" displayName="표1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D24" xr:uid="{DC0B533B-332D-4AAC-9A93-D5731D171920}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DFE1671F-C858-431A-B9D8-B0A86BAC68B8}" name="Stage" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3559EFE0-8F22-4D1E-99AB-3E8D62C85C3B}" name="Room" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DFE1671F-C858-431A-B9D8-B0A86BAC68B8}" name="Stage" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3559EFE0-8F22-4D1E-99AB-3E8D62C85C3B}" name="Room" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{1383C8A7-3779-4A0F-9538-8CBF758176D6}" name="조건" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C74CFB19-69BF-4044-A64B-CB5F544ACE9E}" name="비고" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C74CFB19-69BF-4044-A64B-CB5F544ACE9E}" name="비고" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,7 +732,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -929,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -951,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -987,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -999,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1011,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7"/>
     </row>
@@ -1023,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="9"/>
     </row>
